--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.864</v>
+        <v>-1.346</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.864</v>
+        <v>-1.346</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.074</v>
+        <v>0.104</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.074</v>
+        <v>0.104</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.931</v>
+        <v>6.871</v>
       </c>
       <c r="C6" t="n">
-        <v>5.931</v>
+        <v>6.871</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.365</v>
+        <v>0.459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365</v>
+        <v>0.459</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.521</v>
+        <v>14.336</v>
       </c>
       <c r="C8" t="n">
-        <v>15.521</v>
+        <v>14.336</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.254</v>
+        <v>7.019</v>
       </c>
       <c r="C9" t="n">
-        <v>4.254</v>
+        <v>7.019</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.304</v>
+        <v>60.361</v>
       </c>
       <c r="C10" t="n">
-        <v>53.304</v>
+        <v>60.361</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.276</v>
+        <v>0.397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.276</v>
+        <v>0.397</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.159</v>
+        <v>-3.112</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.159</v>
+        <v>-3.112</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.301</v>
+        <v>7.769</v>
       </c>
       <c r="C13" t="n">
-        <v>7.301</v>
+        <v>7.769</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.504817962646484</v>
+        <v>3.868463209697178</v>
       </c>
       <c r="C4" t="n">
-        <v>3.876993998885155</v>
+        <v>3.790392359097799</v>
       </c>
       <c r="D4" t="n">
-        <v>10.62</v>
+        <v>-2.02</v>
       </c>
       <c r="E4" t="n">
-        <v>0.419470582274694</v>
+        <v>0.200941216726581</v>
       </c>
       <c r="F4" t="n">
-        <v>1.262885029396335</v>
+        <v>1.47716597586781</v>
       </c>
       <c r="G4" t="n">
-        <v>201.07</v>
+        <v>635.12</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.901802980227278</v>
+        <v>5.807034582447439</v>
       </c>
       <c r="C6" t="n">
-        <v>4.447084220429504</v>
+        <v>5.3602160755742</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.279999999999999</v>
+        <v>-7.69</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9499412239741999</v>
+        <v>0.8388592400947908</v>
       </c>
       <c r="F6" t="n">
-        <v>1.458217564176026</v>
+        <v>0.6683388696295194</v>
       </c>
       <c r="G6" t="n">
-        <v>53.51</v>
+        <v>-20.33</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.346</v>
+        <v>-0.731</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.346</v>
+        <v>-0.731</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.104</v>
+        <v>-0.034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104</v>
+        <v>-0.034</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.871</v>
+        <v>4.632</v>
       </c>
       <c r="C6" t="n">
-        <v>6.871</v>
+        <v>4.632</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.459</v>
+        <v>0.299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.459</v>
+        <v>0.299</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.336</v>
+        <v>14.053</v>
       </c>
       <c r="C8" t="n">
-        <v>14.336</v>
+        <v>14.053</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.019</v>
+        <v>3.984</v>
       </c>
       <c r="C9" t="n">
-        <v>7.019</v>
+        <v>3.984</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.361</v>
+        <v>33.679</v>
       </c>
       <c r="C10" t="n">
-        <v>60.361</v>
+        <v>33.679</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.397</v>
+        <v>0.182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.397</v>
+        <v>0.182</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.112</v>
+        <v>-1.849</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.112</v>
+        <v>-1.849</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.769</v>
+        <v>5.803</v>
       </c>
       <c r="C13" t="n">
-        <v>7.769</v>
+        <v>5.803</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.868463209697178</v>
+        <v>3.585869721003941</v>
       </c>
       <c r="C4" t="n">
-        <v>3.790392359097799</v>
+        <v>3.738341325805301</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.02</v>
+        <v>4.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.200941216726581</v>
+        <v>0.3258528570110699</v>
       </c>
       <c r="F4" t="n">
-        <v>1.47716597586781</v>
+        <v>0.5718300189769858</v>
       </c>
       <c r="G4" t="n">
-        <v>635.12</v>
+        <v>75.48999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.434</v>
+        <v>0.355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434</v>
+        <v>0.355</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.807034582447439</v>
+        <v>2.623880201526911</v>
       </c>
       <c r="C6" t="n">
-        <v>5.3602160755742</v>
+        <v>2.655287553391863</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.69</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8388592400947908</v>
+        <v>0.3260583993639475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6683388696295194</v>
+        <v>0.3964907677417686</v>
       </c>
       <c r="G6" t="n">
-        <v>-20.33</v>
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/3_quant-static_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -512,7 +514,7 @@
         <v>-0.731</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +530,7 @@
         <v>-0.034</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,7 +642,7 @@
         <v>-1.849</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
